--- a/biology/Botanique/Épervière_de_Savoie/Épervière_de_Savoie.xlsx
+++ b/biology/Botanique/Épervière_de_Savoie/Épervière_de_Savoie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_de_Savoie</t>
+          <t>Épervière_de_Savoie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Épervière de Savoie
 L'Épervière de Savoie (Hieracium sabautum) est une espèce de plante à fleurs du genre des Épervières et de la famille des Astéracées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_de_Savoie</t>
+          <t>Épervière_de_Savoie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_de_Savoie</t>
+          <t>Épervière_de_Savoie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des sous-espèces
-Selon Catalogue of Life                                   (2 novembre 2020)[3] et The Plant List            (2 novembre 2020)[1] :
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (2 novembre 2020) et The Plant List            (2 novembre 2020) :
 Hieracium sabaudum subsp. cumuliflorum
 Hieracium sabaudum subsp. gigantodon
 Hieracium sabaudum subsp. pseudograndidentatum
@@ -589,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_de_Savoie</t>
+          <t>Épervière_de_Savoie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,7 +626,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe.
 </t>
@@ -620,7 +641,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_de_Savoie</t>
+          <t>Épervière_de_Savoie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,7 +659,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante hôte pour la larve d'Aulacidea hieracii, un insecte hyménoptère formant des galles.
 </t>
@@ -651,7 +674,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pervi%C3%A8re_de_Savoie</t>
+          <t>Épervière_de_Savoie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,7 +692,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'une des espèces utilisées dans l'Horloge florale de Linné  (ouverture des fleurs à 7h, fermeture vers 13-14h).
 </t>
